--- a/src/tests/comps/Dairy/Test Sheet.xlsx
+++ b/src/tests/comps/Dairy/Test Sheet.xlsx
@@ -313,7 +313,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="AQ5">
+    <comment authorId="0" ref="AR5">
       <text>
         <t xml:space="preserve">Not used in export section in AR.pdf or Manifest.pdf
 </t>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="337">
   <si>
     <t>Operation Name:</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>Operator Is Owner</t>
+  </si>
+  <si>
+    <t>Operator Is Operator</t>
   </si>
   <si>
     <t>Operator Responsible for Fees</t>
@@ -1402,11 +1405,12 @@
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="m/d/yyyy h:mm am/pm"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1418,6 +1422,7 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1425,14 +1430,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1448,6 +1449,7 @@
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -1458,6 +1460,7 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1555,6 +1558,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1580,6 +1588,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1815,23 +1828,23 @@
     <xf borderId="3" fillId="2" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1844,13 +1857,13 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1871,7 +1884,7 @@
     <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1902,18 +1915,18 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="2" fontId="10" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1926,7 +1939,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -1940,7 +1953,7 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1965,11 +1978,11 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1985,16 +1998,16 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -2008,10 +2021,10 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2035,16 +2048,19 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2053,49 +2069,46 @@
     <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2103,88 +2116,88 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="21" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="22" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="21" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="22" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="9" fontId="21" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="22" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2196,47 +2209,47 @@
     <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="10" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="10" fontId="28" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="10" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="29" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="28" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="30" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2264,7 +2277,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2291,28 +2304,28 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2614,35 +2627,35 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="9.38"/>
-    <col customWidth="1" min="5" max="5" width="8.63"/>
-    <col customWidth="1" min="6" max="6" width="20.25"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="6.13"/>
-    <col customWidth="1" min="9" max="9" width="6.88"/>
-    <col customWidth="1" min="10" max="10" width="5.38"/>
-    <col customWidth="1" min="11" max="11" width="23.0"/>
-    <col customWidth="1" min="12" max="13" width="14.5"/>
-    <col customWidth="1" min="14" max="14" width="8.13"/>
-    <col customWidth="1" min="15" max="15" width="7.25"/>
-    <col customWidth="1" min="16" max="16" width="8.5"/>
-    <col customWidth="1" min="17" max="17" width="12.38"/>
-    <col customWidth="1" min="18" max="18" width="16.5"/>
-    <col customWidth="1" min="19" max="19" width="9.63"/>
-    <col customWidth="1" min="20" max="20" width="8.0"/>
-    <col customWidth="1" min="21" max="21" width="11.63"/>
-    <col customWidth="1" min="22" max="22" width="8.13"/>
-    <col customWidth="1" min="23" max="23" width="8.38"/>
-    <col customWidth="1" min="24" max="24" width="8.63"/>
-    <col customWidth="1" min="25" max="25" width="9.13"/>
-    <col customWidth="1" min="26" max="26" width="7.63"/>
-    <col customWidth="1" min="27" max="27" width="16.0"/>
-    <col customWidth="1" min="28" max="32" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="11.0"/>
+    <col customWidth="1" min="3" max="3" width="9.29"/>
+    <col customWidth="1" min="4" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="9.86"/>
+    <col customWidth="1" min="6" max="6" width="23.14"/>
+    <col customWidth="1" min="7" max="7" width="12.43"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="7.86"/>
+    <col customWidth="1" min="10" max="10" width="6.14"/>
+    <col customWidth="1" min="11" max="11" width="26.29"/>
+    <col customWidth="1" min="12" max="13" width="16.57"/>
+    <col customWidth="1" min="14" max="14" width="9.29"/>
+    <col customWidth="1" min="15" max="15" width="8.29"/>
+    <col customWidth="1" min="16" max="16" width="9.71"/>
+    <col customWidth="1" min="17" max="17" width="14.14"/>
+    <col customWidth="1" min="18" max="18" width="18.86"/>
+    <col customWidth="1" min="19" max="19" width="11.0"/>
+    <col customWidth="1" min="20" max="20" width="9.14"/>
+    <col customWidth="1" min="21" max="21" width="13.29"/>
+    <col customWidth="1" min="22" max="22" width="9.29"/>
+    <col customWidth="1" min="23" max="23" width="9.57"/>
+    <col customWidth="1" min="24" max="24" width="9.86"/>
+    <col customWidth="1" min="25" max="25" width="10.43"/>
+    <col customWidth="1" min="26" max="26" width="8.71"/>
+    <col customWidth="1" min="27" max="27" width="18.29"/>
+    <col customWidth="1" min="28" max="32" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -3850,25 +3863,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="7.38"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="10.25"/>
-    <col customWidth="1" min="5" max="5" width="10.88"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-    <col customWidth="1" min="7" max="7" width="11.13"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="7.63"/>
-    <col customWidth="1" min="9" max="9" width="11.0"/>
-    <col customWidth="1" min="10" max="10" width="10.75"/>
-    <col customWidth="1" min="11" max="11" width="12.5"/>
-    <col customWidth="1" min="12" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="12.14"/>
+    <col customWidth="1" min="2" max="2" width="8.43"/>
+    <col customWidth="1" min="3" max="3" width="12.57"/>
+    <col customWidth="1" min="4" max="4" width="11.71"/>
+    <col customWidth="1" min="5" max="5" width="12.43"/>
+    <col customWidth="1" min="6" max="6" width="13.43"/>
+    <col customWidth="1" min="7" max="7" width="12.71"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="12.57"/>
+    <col customWidth="1" min="10" max="10" width="12.29"/>
+    <col customWidth="1" min="11" max="11" width="14.29"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -3899,13 +3912,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D3" s="160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" s="160" t="s">
         <v>36</v>
@@ -3914,19 +3927,19 @@
         <v>139</v>
       </c>
       <c r="G3" s="160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H3" s="161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I3" s="162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J3" s="162" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K3" s="163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -3934,19 +3947,19 @@
       <c r="B4" s="164"/>
       <c r="C4" s="164"/>
       <c r="D4" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E4" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F4" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G4" s="160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H4" s="161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I4" s="164"/>
       <c r="J4" s="164"/>
@@ -3960,7 +3973,7 @@
         <v>22.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="165">
         <v>45.0</v>
@@ -3995,7 +4008,7 @@
         <v>17.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" s="165">
         <v>39.0</v>
@@ -4030,7 +4043,7 @@
         <v>7.0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="165">
         <v>26.0</v>
@@ -4059,13 +4072,13 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="16">
         <v>38.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8" s="165">
         <v>15.0</v>
@@ -4094,13 +4107,13 @@
     </row>
     <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B9" s="16">
         <v>3.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="165">
         <v>33.0</v>
@@ -4129,13 +4142,13 @@
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B10" s="16">
         <v>9.0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="165">
         <v>23.0</v>
@@ -4164,13 +4177,13 @@
     </row>
     <row r="11" ht="24.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B11" s="16">
         <v>36.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="165">
         <v>36.0</v>
@@ -4199,13 +4212,13 @@
     </row>
     <row r="12" ht="24.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B12" s="16">
         <v>36.0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="165">
         <v>3.0</v>
@@ -4234,13 +4247,13 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B13" s="16">
         <v>27.0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="165">
         <v>35.0</v>
@@ -4275,7 +4288,7 @@
         <v>290.0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="165">
         <v>5.0</v>
@@ -4336,7 +4349,7 @@
         <v>22.0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D17" s="165">
         <v>0.0</v>
@@ -4371,7 +4384,7 @@
         <v>17.0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" s="165">
         <v>0.0</v>
@@ -4406,7 +4419,7 @@
         <v>7.0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" s="165">
         <v>0.0</v>
@@ -4435,13 +4448,13 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B20" s="16">
         <v>38.0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D20" s="165">
         <v>0.0</v>
@@ -4470,13 +4483,13 @@
     </row>
     <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" s="16">
         <v>3.0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D21" s="165">
         <v>28.0</v>
@@ -4505,13 +4518,13 @@
     </row>
     <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B22" s="16">
         <v>9.0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D22" s="165">
         <v>0.0</v>
@@ -4540,13 +4553,13 @@
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="16">
         <v>36.0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="165">
         <v>0.0</v>
@@ -4575,13 +4588,13 @@
     </row>
     <row r="24" ht="24.75" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" s="16">
         <v>36.0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" s="165">
         <v>0.0</v>
@@ -4610,13 +4623,13 @@
     </row>
     <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="16">
         <v>27.0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25" s="165">
         <v>0.0</v>
@@ -4645,13 +4658,13 @@
     </row>
     <row r="26" ht="24.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" s="16">
         <v>18.0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D26" s="165">
         <v>0.0</v>
@@ -4686,7 +4699,7 @@
         <v>290.0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D27" s="165">
         <v>0.0</v>
@@ -5729,20 +5742,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="5" width="12.25"/>
-    <col customWidth="1" min="6" max="6" width="14.88"/>
-    <col customWidth="1" min="7" max="10" width="12.25"/>
-    <col customWidth="1" min="11" max="11" width="12.88"/>
-    <col customWidth="1" min="12" max="13" width="13.25"/>
-    <col customWidth="1" min="14" max="14" width="13.13"/>
-    <col customWidth="1" min="15" max="15" width="12.13"/>
-    <col customWidth="1" min="16" max="17" width="7.63"/>
-    <col customWidth="1" min="18" max="18" width="9.0"/>
-    <col customWidth="1" min="19" max="19" width="9.25"/>
-    <col customWidth="1" min="20" max="57" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="17.0"/>
+    <col customWidth="1" min="7" max="10" width="14.0"/>
+    <col customWidth="1" min="11" max="11" width="14.71"/>
+    <col customWidth="1" min="12" max="13" width="15.14"/>
+    <col customWidth="1" min="14" max="14" width="15.0"/>
+    <col customWidth="1" min="15" max="15" width="13.86"/>
+    <col customWidth="1" min="16" max="17" width="8.71"/>
+    <col customWidth="1" min="18" max="18" width="10.29"/>
+    <col customWidth="1" min="19" max="19" width="10.57"/>
+    <col customWidth="1" min="20" max="57" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -5830,7 +5843,7 @@
       <c r="K2" s="181"/>
       <c r="L2" s="182"/>
       <c r="M2" s="184" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
@@ -5847,7 +5860,7 @@
       <c r="Z2" s="31"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="184" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
@@ -5864,7 +5877,7 @@
       <c r="AO2" s="31"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="184" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AR2" s="31"/>
       <c r="AS2" s="31"/>
@@ -5919,139 +5932,139 @@
         <v>109</v>
       </c>
       <c r="M3" s="185" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N3" s="181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O3" s="185" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P3" s="185" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R3" s="185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S3" s="185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T3" s="185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U3" s="185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V3" s="185" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W3" s="185" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X3" s="185" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y3" s="185" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z3" s="185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA3" s="185" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AB3" s="185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC3" s="181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD3" s="185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AE3" s="185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF3" s="185" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG3" s="185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AH3" s="185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI3" s="185" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ3" s="185" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK3" s="185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL3" s="185" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM3" s="185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN3" s="185" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO3" s="185" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP3" s="185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ3" s="185" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AR3" s="181" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AS3" s="185" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AT3" s="185" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU3" s="185" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AV3" s="185" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AW3" s="185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AX3" s="185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AY3" s="185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AZ3" s="185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BA3" s="185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BB3" s="185" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BC3" s="185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BD3" s="185" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BE3" s="185" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
@@ -6150,13 +6163,13 @@
         <v>34</v>
       </c>
       <c r="L5" s="188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M5" s="189">
         <v>43781.0</v>
       </c>
       <c r="N5" s="183" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O5" s="190" t="s">
         <v>71</v>
@@ -6201,7 +6214,7 @@
         <v>43781.0</v>
       </c>
       <c r="AC5" s="183" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AD5" s="190" t="s">
         <v>71</v>
@@ -6246,7 +6259,7 @@
         <v>43781.0</v>
       </c>
       <c r="AR5" s="183" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AS5" s="190" t="s">
         <v>71</v>
@@ -6325,18 +6338,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="7" width="12.25"/>
-    <col customWidth="1" min="8" max="8" width="13.75"/>
-    <col customWidth="1" min="9" max="10" width="12.25"/>
-    <col customWidth="1" min="11" max="11" width="13.13"/>
-    <col customWidth="1" min="12" max="12" width="13.25"/>
-    <col customWidth="1" min="13" max="13" width="8.25"/>
-    <col customWidth="1" min="14" max="14" width="7.5"/>
-    <col customWidth="1" min="15" max="15" width="6.88"/>
-    <col customWidth="1" min="16" max="16" width="9.63"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="7" width="14.0"/>
+    <col customWidth="1" min="8" max="8" width="15.71"/>
+    <col customWidth="1" min="9" max="10" width="14.0"/>
+    <col customWidth="1" min="11" max="11" width="15.0"/>
+    <col customWidth="1" min="12" max="12" width="15.14"/>
+    <col customWidth="1" min="13" max="13" width="9.43"/>
+    <col customWidth="1" min="14" max="14" width="8.57"/>
+    <col customWidth="1" min="15" max="15" width="7.86"/>
+    <col customWidth="1" min="16" max="16" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
@@ -6425,16 +6438,16 @@
         <v>109</v>
       </c>
       <c r="M3" s="181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N3" s="181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O3" s="181" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P3" s="181" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
@@ -6492,7 +6505,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="193" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M5" s="193">
         <v>250.0</v>
@@ -6537,14 +6550,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="11" width="12.25"/>
-    <col customWidth="1" min="12" max="13" width="13.25"/>
-    <col customWidth="1" min="14" max="14" width="13.13"/>
-    <col customWidth="1" min="15" max="15" width="12.13"/>
-    <col customWidth="1" min="16" max="16" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="11" width="14.0"/>
+    <col customWidth="1" min="12" max="13" width="15.14"/>
+    <col customWidth="1" min="14" max="14" width="15.0"/>
+    <col customWidth="1" min="15" max="15" width="13.86"/>
+    <col customWidth="1" min="16" max="16" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -6663,13 +6676,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B5" s="18">
         <v>43748.0</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D5" s="190" t="s">
         <v>71</v>
@@ -6734,15 +6747,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.75"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="6" width="12.25"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="8" width="12.25"/>
-    <col customWidth="1" min="9" max="9" width="24.38"/>
-    <col customWidth="1" min="10" max="10" width="12.25"/>
+    <col customWidth="1" min="1" max="1" width="37.43"/>
+    <col customWidth="1" min="2" max="2" width="22.57"/>
+    <col customWidth="1" min="3" max="6" width="14.0"/>
+    <col customWidth="1" min="7" max="7" width="19.43"/>
+    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col customWidth="1" min="9" max="9" width="27.86"/>
+    <col customWidth="1" min="10" max="10" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -6783,34 +6796,34 @@
     </row>
     <row r="3" ht="55.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="201" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
@@ -6829,19 +6842,19 @@
     </row>
     <row r="5">
       <c r="A5" s="202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="203">
         <v>43748.729166666664</v>
       </c>
       <c r="C5" s="204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" s="205">
         <v>1337.0</v>
       </c>
       <c r="E5" s="206" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F5" s="207">
         <v>20.0</v>
@@ -6850,10 +6863,10 @@
         <v>36</v>
       </c>
       <c r="H5" s="209" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I5" s="209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J5" s="209">
         <v>1.3376942E8</v>
@@ -6861,31 +6874,31 @@
     </row>
     <row r="6">
       <c r="A6" s="202" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B6" s="203">
         <v>43748.729166666664</v>
       </c>
       <c r="C6" s="204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="205">
         <v>1337.0</v>
       </c>
       <c r="E6" s="204" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F6" s="207">
         <v>20.0</v>
       </c>
       <c r="G6" s="207" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="209" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="209" t="s">
         <v>333</v>
-      </c>
-      <c r="H6" s="209" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="209" t="s">
-        <v>332</v>
       </c>
       <c r="J6" s="209">
         <v>1.3376942E8</v>
@@ -6893,31 +6906,31 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" s="210">
         <v>43748.729166666664</v>
       </c>
       <c r="C7" s="211" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D7" s="190">
         <v>1337.0</v>
       </c>
       <c r="E7" s="211" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F7" s="17">
         <v>20.0</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="186" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="186" t="s">
         <v>333</v>
-      </c>
-      <c r="H7" s="186" t="s">
-        <v>331</v>
-      </c>
-      <c r="I7" s="186" t="s">
-        <v>332</v>
       </c>
       <c r="J7" s="186">
         <v>1.3376942E8</v>
@@ -6959,40 +6972,40 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
-    <col customWidth="1" min="2" max="3" width="9.63"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="9.38"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="6.13"/>
-    <col customWidth="1" min="9" max="9" width="6.88"/>
-    <col customWidth="1" min="10" max="10" width="5.38"/>
-    <col customWidth="1" min="11" max="11" width="14.5"/>
-    <col customWidth="1" min="12" max="12" width="12.5"/>
-    <col customWidth="1" min="13" max="13" width="13.63"/>
-    <col customWidth="1" min="14" max="14" width="8.13"/>
-    <col customWidth="1" min="15" max="15" width="7.38"/>
-    <col customWidth="1" min="16" max="17" width="7.0"/>
-    <col customWidth="1" min="18" max="18" width="7.25"/>
-    <col customWidth="1" min="19" max="19" width="8.5"/>
-    <col customWidth="1" min="20" max="20" width="9.38"/>
-    <col customWidth="1" min="21" max="21" width="10.88"/>
-    <col customWidth="1" min="22" max="22" width="9.13"/>
-    <col customWidth="1" min="23" max="23" width="9.5"/>
-    <col customWidth="1" min="24" max="24" width="10.5"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="9.88"/>
-    <col customWidth="1" min="27" max="27" width="12.13"/>
-    <col customWidth="1" min="28" max="28" width="8.13"/>
-    <col customWidth="1" min="29" max="29" width="7.13"/>
-    <col customWidth="1" min="30" max="31" width="6.13"/>
-    <col customWidth="1" min="32" max="32" width="6.63"/>
-    <col customWidth="1" min="33" max="33" width="5.38"/>
-    <col customWidth="1" min="34" max="34" width="7.13"/>
-    <col customWidth="1" min="35" max="35" width="9.13"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="9.29"/>
+    <col customWidth="1" min="5" max="5" width="10.71"/>
+    <col customWidth="1" min="6" max="6" width="9.86"/>
+    <col customWidth="1" min="7" max="7" width="12.43"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="7.86"/>
+    <col customWidth="1" min="10" max="10" width="6.14"/>
+    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col customWidth="1" min="12" max="12" width="14.29"/>
+    <col customWidth="1" min="13" max="13" width="15.57"/>
+    <col customWidth="1" min="14" max="14" width="9.29"/>
+    <col customWidth="1" min="15" max="15" width="8.43"/>
+    <col customWidth="1" min="16" max="17" width="8.0"/>
+    <col customWidth="1" min="18" max="18" width="8.29"/>
+    <col customWidth="1" min="19" max="19" width="9.71"/>
+    <col customWidth="1" min="20" max="20" width="10.71"/>
+    <col customWidth="1" min="21" max="21" width="12.43"/>
+    <col customWidth="1" min="22" max="22" width="10.43"/>
+    <col customWidth="1" min="23" max="23" width="10.86"/>
+    <col customWidth="1" min="24" max="24" width="12.0"/>
+    <col customWidth="1" min="25" max="25" width="11.43"/>
+    <col customWidth="1" min="26" max="26" width="11.29"/>
+    <col customWidth="1" min="27" max="27" width="13.86"/>
+    <col customWidth="1" min="28" max="28" width="9.29"/>
+    <col customWidth="1" min="29" max="29" width="8.14"/>
+    <col customWidth="1" min="30" max="31" width="7.0"/>
+    <col customWidth="1" min="32" max="32" width="7.57"/>
+    <col customWidth="1" min="33" max="33" width="6.14"/>
+    <col customWidth="1" min="34" max="34" width="8.14"/>
+    <col customWidth="1" min="35" max="35" width="10.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -8217,29 +8230,29 @@
       <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.88"/>
-    <col customWidth="1" min="2" max="2" width="17.88"/>
-    <col customWidth="1" min="3" max="3" width="10.75"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="18.25"/>
-    <col customWidth="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" min="7" max="8" width="9.25"/>
-    <col customWidth="1" min="9" max="9" width="12.38"/>
-    <col customWidth="1" min="10" max="10" width="8.88"/>
-    <col customWidth="1" min="11" max="11" width="12.13"/>
-    <col customWidth="1" min="12" max="12" width="14.13"/>
-    <col customWidth="1" min="13" max="13" width="12.75"/>
-    <col customWidth="1" min="14" max="14" width="9.88"/>
-    <col customWidth="1" min="15" max="15" width="9.63"/>
-    <col customWidth="1" min="16" max="16" width="8.75"/>
-    <col customWidth="1" min="17" max="17" width="10.63"/>
-    <col customWidth="1" min="18" max="18" width="14.5"/>
-    <col customWidth="1" min="19" max="23" width="13.63"/>
-    <col customWidth="1" min="24" max="24" width="13.25"/>
-    <col customWidth="1" min="25" max="25" width="14.13"/>
-    <col customWidth="1" min="26" max="33" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="12.43"/>
+    <col customWidth="1" min="2" max="2" width="20.43"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="13.71"/>
+    <col customWidth="1" min="5" max="5" width="20.86"/>
+    <col customWidth="1" min="6" max="6" width="12.57"/>
+    <col customWidth="1" min="7" max="8" width="10.57"/>
+    <col customWidth="1" min="9" max="9" width="14.14"/>
+    <col customWidth="1" min="10" max="10" width="10.14"/>
+    <col customWidth="1" min="11" max="11" width="13.86"/>
+    <col customWidth="1" min="12" max="12" width="16.14"/>
+    <col customWidth="1" min="13" max="13" width="14.57"/>
+    <col customWidth="1" min="14" max="14" width="11.29"/>
+    <col customWidth="1" min="15" max="15" width="11.0"/>
+    <col customWidth="1" min="16" max="16" width="10.0"/>
+    <col customWidth="1" min="17" max="17" width="12.14"/>
+    <col customWidth="1" min="18" max="18" width="16.57"/>
+    <col customWidth="1" min="19" max="23" width="15.57"/>
+    <col customWidth="1" min="24" max="24" width="15.14"/>
+    <col customWidth="1" min="25" max="25" width="16.14"/>
+    <col customWidth="1" min="26" max="33" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8918,64 +8931,64 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="9.38"/>
-    <col customWidth="1" min="5" max="5" width="8.63"/>
-    <col customWidth="1" min="6" max="6" width="20.25"/>
-    <col customWidth="1" min="7" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="6.13"/>
-    <col customWidth="1" min="9" max="9" width="6.88"/>
-    <col customWidth="1" min="10" max="10" width="5.38"/>
-    <col customWidth="1" min="11" max="11" width="23.0"/>
-    <col customWidth="1" min="12" max="12" width="14.5"/>
-    <col customWidth="1" min="13" max="13" width="12.5"/>
-    <col customWidth="1" min="14" max="14" width="13.63"/>
-    <col customWidth="1" min="15" max="15" width="8.13"/>
-    <col customWidth="1" min="16" max="16" width="5.88"/>
-    <col customWidth="1" min="17" max="17" width="5.13"/>
-    <col customWidth="1" min="18" max="18" width="5.63"/>
-    <col customWidth="1" min="19" max="19" width="7.25"/>
-    <col customWidth="1" min="20" max="20" width="8.5"/>
-    <col customWidth="1" min="21" max="21" width="9.38"/>
-    <col customWidth="1" min="22" max="22" width="10.88"/>
-    <col customWidth="1" min="23" max="23" width="9.13"/>
-    <col customWidth="1" min="24" max="24" width="9.5"/>
-    <col customWidth="1" min="25" max="25" width="10.5"/>
-    <col customWidth="1" min="26" max="26" width="10.0"/>
-    <col customWidth="1" min="27" max="27" width="9.88"/>
-    <col customWidth="1" min="28" max="28" width="12.13"/>
-    <col customWidth="1" min="29" max="29" width="8.13"/>
-    <col customWidth="1" min="30" max="30" width="7.13"/>
-    <col customWidth="1" min="31" max="32" width="6.13"/>
-    <col customWidth="1" min="33" max="33" width="6.63"/>
-    <col customWidth="1" min="34" max="34" width="5.38"/>
-    <col customWidth="1" min="35" max="35" width="7.13"/>
-    <col customWidth="1" min="36" max="36" width="9.13"/>
-    <col customWidth="1" min="37" max="37" width="11.38"/>
-    <col customWidth="1" min="38" max="38" width="9.5"/>
-    <col customWidth="1" min="39" max="39" width="8.38"/>
-    <col customWidth="1" min="40" max="40" width="10.75"/>
-    <col customWidth="1" min="41" max="41" width="9.38"/>
-    <col customWidth="1" min="42" max="42" width="9.5"/>
-    <col customWidth="1" min="43" max="43" width="11.5"/>
-    <col customWidth="1" min="44" max="44" width="7.75"/>
-    <col customWidth="1" min="45" max="45" width="6.0"/>
-    <col customWidth="1" min="46" max="46" width="12.38"/>
-    <col customWidth="1" min="47" max="47" width="16.5"/>
-    <col customWidth="1" min="48" max="48" width="9.63"/>
-    <col customWidth="1" min="49" max="49" width="8.0"/>
-    <col customWidth="1" min="50" max="50" width="11.63"/>
-    <col customWidth="1" min="51" max="51" width="8.13"/>
-    <col customWidth="1" min="52" max="52" width="8.38"/>
-    <col customWidth="1" min="53" max="53" width="8.63"/>
-    <col customWidth="1" min="54" max="54" width="9.13"/>
-    <col customWidth="1" min="55" max="55" width="7.63"/>
-    <col customWidth="1" min="56" max="56" width="16.0"/>
-    <col customWidth="1" min="57" max="61" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="11.0"/>
+    <col customWidth="1" min="3" max="3" width="9.29"/>
+    <col customWidth="1" min="4" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="9.86"/>
+    <col customWidth="1" min="6" max="6" width="23.14"/>
+    <col customWidth="1" min="7" max="7" width="12.43"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="7.86"/>
+    <col customWidth="1" min="10" max="10" width="6.14"/>
+    <col customWidth="1" min="11" max="11" width="26.29"/>
+    <col customWidth="1" min="12" max="12" width="16.57"/>
+    <col customWidth="1" min="13" max="13" width="14.29"/>
+    <col customWidth="1" min="14" max="14" width="15.57"/>
+    <col customWidth="1" min="15" max="15" width="9.29"/>
+    <col customWidth="1" min="16" max="16" width="6.71"/>
+    <col customWidth="1" min="17" max="17" width="5.86"/>
+    <col customWidth="1" min="18" max="18" width="6.43"/>
+    <col customWidth="1" min="19" max="19" width="8.29"/>
+    <col customWidth="1" min="20" max="20" width="9.71"/>
+    <col customWidth="1" min="21" max="21" width="10.71"/>
+    <col customWidth="1" min="22" max="22" width="12.43"/>
+    <col customWidth="1" min="23" max="23" width="10.43"/>
+    <col customWidth="1" min="24" max="24" width="10.86"/>
+    <col customWidth="1" min="25" max="25" width="12.0"/>
+    <col customWidth="1" min="26" max="26" width="11.43"/>
+    <col customWidth="1" min="27" max="27" width="11.29"/>
+    <col customWidth="1" min="28" max="28" width="13.86"/>
+    <col customWidth="1" min="29" max="29" width="9.29"/>
+    <col customWidth="1" min="30" max="30" width="8.14"/>
+    <col customWidth="1" min="31" max="32" width="7.0"/>
+    <col customWidth="1" min="33" max="33" width="7.57"/>
+    <col customWidth="1" min="34" max="34" width="6.14"/>
+    <col customWidth="1" min="35" max="35" width="8.14"/>
+    <col customWidth="1" min="36" max="36" width="10.43"/>
+    <col customWidth="1" min="37" max="37" width="13.0"/>
+    <col customWidth="1" min="38" max="38" width="10.86"/>
+    <col customWidth="1" min="39" max="39" width="9.57"/>
+    <col customWidth="1" min="40" max="40" width="12.29"/>
+    <col customWidth="1" min="41" max="41" width="10.71"/>
+    <col customWidth="1" min="42" max="42" width="10.86"/>
+    <col customWidth="1" min="43" max="43" width="13.14"/>
+    <col customWidth="1" min="44" max="44" width="8.86"/>
+    <col customWidth="1" min="45" max="45" width="6.86"/>
+    <col customWidth="1" min="46" max="46" width="14.14"/>
+    <col customWidth="1" min="47" max="47" width="18.86"/>
+    <col customWidth="1" min="48" max="48" width="11.0"/>
+    <col customWidth="1" min="49" max="49" width="9.14"/>
+    <col customWidth="1" min="50" max="50" width="13.29"/>
+    <col customWidth="1" min="51" max="51" width="9.29"/>
+    <col customWidth="1" min="52" max="52" width="9.57"/>
+    <col customWidth="1" min="53" max="53" width="9.86"/>
+    <col customWidth="1" min="54" max="54" width="10.43"/>
+    <col customWidth="1" min="55" max="55" width="8.71"/>
+    <col customWidth="1" min="56" max="56" width="18.29"/>
+    <col customWidth="1" min="57" max="61" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -11236,42 +11249,42 @@
       <selection activeCell="C4" sqref="C4" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.75"/>
-    <col customWidth="1" min="2" max="2" width="9.25"/>
-    <col customWidth="1" min="3" max="3" width="8.75"/>
-    <col customWidth="1" min="4" max="5" width="11.38"/>
-    <col customWidth="1" min="6" max="6" width="21.5"/>
-    <col customWidth="1" min="7" max="7" width="11.38"/>
-    <col customWidth="1" min="8" max="8" width="7.38"/>
-    <col customWidth="1" min="9" max="9" width="7.13"/>
-    <col customWidth="1" min="10" max="10" width="6.63"/>
-    <col customWidth="1" min="11" max="13" width="13.38"/>
-    <col customWidth="1" min="14" max="14" width="17.13"/>
-    <col customWidth="1" min="15" max="15" width="15.63"/>
-    <col customWidth="1" min="16" max="17" width="10.13"/>
-    <col customWidth="1" min="18" max="18" width="13.0"/>
-    <col customWidth="1" min="19" max="20" width="8.75"/>
-    <col customWidth="1" min="21" max="21" width="11.75"/>
-    <col customWidth="1" min="22" max="22" width="8.25"/>
-    <col customWidth="1" min="23" max="23" width="11.88"/>
-    <col customWidth="1" min="24" max="24" width="10.13"/>
-    <col customWidth="1" min="25" max="25" width="8.63"/>
-    <col customWidth="1" min="26" max="26" width="8.5"/>
-    <col customWidth="1" min="27" max="27" width="8.38"/>
-    <col customWidth="1" min="28" max="28" width="8.13"/>
-    <col customWidth="1" min="29" max="29" width="10.13"/>
-    <col customWidth="1" min="30" max="30" width="12.13"/>
-    <col customWidth="1" min="31" max="38" width="10.13"/>
-    <col customWidth="1" min="39" max="39" width="11.25"/>
-    <col customWidth="1" min="40" max="40" width="10.13"/>
-    <col customWidth="1" min="41" max="41" width="11.0"/>
-    <col customWidth="1" min="42" max="42" width="7.88"/>
-    <col customWidth="1" min="43" max="43" width="12.5"/>
-    <col customWidth="1" min="44" max="44" width="18.63"/>
-    <col customWidth="1" min="45" max="45" width="8.38"/>
-    <col customWidth="1" min="46" max="55" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="16.86"/>
+    <col customWidth="1" min="2" max="2" width="10.57"/>
+    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="4" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="24.57"/>
+    <col customWidth="1" min="7" max="7" width="13.0"/>
+    <col customWidth="1" min="8" max="8" width="8.43"/>
+    <col customWidth="1" min="9" max="9" width="8.14"/>
+    <col customWidth="1" min="10" max="10" width="7.57"/>
+    <col customWidth="1" min="11" max="13" width="15.29"/>
+    <col customWidth="1" min="14" max="14" width="19.57"/>
+    <col customWidth="1" min="15" max="15" width="17.86"/>
+    <col customWidth="1" min="16" max="17" width="11.57"/>
+    <col customWidth="1" min="18" max="18" width="14.86"/>
+    <col customWidth="1" min="19" max="20" width="10.0"/>
+    <col customWidth="1" min="21" max="21" width="13.43"/>
+    <col customWidth="1" min="22" max="22" width="9.43"/>
+    <col customWidth="1" min="23" max="23" width="13.57"/>
+    <col customWidth="1" min="24" max="24" width="11.57"/>
+    <col customWidth="1" min="25" max="25" width="9.86"/>
+    <col customWidth="1" min="26" max="26" width="9.71"/>
+    <col customWidth="1" min="27" max="27" width="9.57"/>
+    <col customWidth="1" min="28" max="28" width="9.29"/>
+    <col customWidth="1" min="29" max="29" width="11.57"/>
+    <col customWidth="1" min="30" max="30" width="13.86"/>
+    <col customWidth="1" min="31" max="38" width="11.57"/>
+    <col customWidth="1" min="39" max="39" width="12.86"/>
+    <col customWidth="1" min="40" max="40" width="11.57"/>
+    <col customWidth="1" min="41" max="41" width="12.57"/>
+    <col customWidth="1" min="42" max="42" width="9.0"/>
+    <col customWidth="1" min="43" max="43" width="14.29"/>
+    <col customWidth="1" min="44" max="44" width="21.29"/>
+    <col customWidth="1" min="45" max="45" width="9.57"/>
+    <col customWidth="1" min="46" max="55" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12927,29 +12940,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.88"/>
-    <col customWidth="1" min="2" max="5" width="9.88"/>
-    <col customWidth="1" min="6" max="6" width="22.63"/>
-    <col customWidth="1" min="7" max="12" width="9.88"/>
-    <col customWidth="1" min="13" max="14" width="15.13"/>
-    <col customWidth="1" min="15" max="15" width="19.25"/>
-    <col customWidth="1" min="16" max="16" width="15.13"/>
-    <col customWidth="1" min="17" max="17" width="13.13"/>
-    <col customWidth="1" min="18" max="18" width="10.13"/>
-    <col customWidth="1" min="19" max="19" width="10.38"/>
-    <col customWidth="1" min="20" max="20" width="8.38"/>
-    <col customWidth="1" min="21" max="22" width="6.13"/>
-    <col customWidth="1" min="23" max="23" width="6.63"/>
-    <col customWidth="1" min="24" max="24" width="9.13"/>
-    <col customWidth="1" min="25" max="25" width="11.25"/>
-    <col customWidth="1" min="26" max="38" width="7.75"/>
-    <col customWidth="1" min="39" max="39" width="7.5"/>
-    <col customWidth="1" min="40" max="41" width="7.63"/>
-    <col customWidth="1" min="42" max="42" width="8.5"/>
-    <col customWidth="1" min="43" max="43" width="14.63"/>
-    <col customWidth="1" min="44" max="49" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col customWidth="1" min="2" max="5" width="11.29"/>
+    <col customWidth="1" min="6" max="6" width="25.86"/>
+    <col customWidth="1" min="7" max="12" width="11.29"/>
+    <col customWidth="1" min="13" max="14" width="17.29"/>
+    <col customWidth="1" min="15" max="15" width="22.0"/>
+    <col customWidth="1" min="16" max="16" width="17.29"/>
+    <col customWidth="1" min="17" max="17" width="15.0"/>
+    <col customWidth="1" min="18" max="18" width="11.57"/>
+    <col customWidth="1" min="19" max="19" width="11.86"/>
+    <col customWidth="1" min="20" max="20" width="9.57"/>
+    <col customWidth="1" min="21" max="22" width="7.0"/>
+    <col customWidth="1" min="23" max="23" width="7.57"/>
+    <col customWidth="1" min="24" max="24" width="10.43"/>
+    <col customWidth="1" min="25" max="25" width="12.86"/>
+    <col customWidth="1" min="26" max="38" width="8.86"/>
+    <col customWidth="1" min="39" max="39" width="8.57"/>
+    <col customWidth="1" min="40" max="41" width="8.71"/>
+    <col customWidth="1" min="42" max="42" width="9.71"/>
+    <col customWidth="1" min="43" max="43" width="16.71"/>
+    <col customWidth="1" min="44" max="49" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13434,28 +13447,28 @@
       <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="2" max="5" width="9.88"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="11" width="9.88"/>
-    <col customWidth="1" min="12" max="12" width="18.25"/>
-    <col customWidth="1" min="13" max="14" width="26.5"/>
-    <col customWidth="1" min="15" max="16" width="11.75"/>
-    <col customWidth="1" min="17" max="17" width="13.0"/>
-    <col customWidth="1" min="18" max="18" width="35.5"/>
-    <col customWidth="1" min="19" max="19" width="8.5"/>
-    <col customWidth="1" min="20" max="20" width="9.0"/>
-    <col customWidth="1" min="21" max="21" width="8.63"/>
-    <col customWidth="1" min="22" max="22" width="10.63"/>
-    <col customWidth="1" min="23" max="23" width="8.25"/>
-    <col customWidth="1" min="24" max="24" width="16.5"/>
-    <col customWidth="1" min="25" max="26" width="8.25"/>
-    <col customWidth="1" min="27" max="27" width="7.63"/>
-    <col customWidth="1" min="28" max="28" width="11.75"/>
-    <col customWidth="1" min="29" max="29" width="9.88"/>
-    <col customWidth="1" min="30" max="35" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="25.71"/>
+    <col customWidth="1" min="2" max="5" width="11.29"/>
+    <col customWidth="1" min="6" max="6" width="24.71"/>
+    <col customWidth="1" min="7" max="11" width="11.29"/>
+    <col customWidth="1" min="12" max="12" width="20.86"/>
+    <col customWidth="1" min="13" max="14" width="30.29"/>
+    <col customWidth="1" min="15" max="16" width="13.43"/>
+    <col customWidth="1" min="17" max="17" width="14.86"/>
+    <col customWidth="1" min="18" max="18" width="40.57"/>
+    <col customWidth="1" min="19" max="19" width="9.71"/>
+    <col customWidth="1" min="20" max="20" width="10.29"/>
+    <col customWidth="1" min="21" max="21" width="9.86"/>
+    <col customWidth="1" min="22" max="22" width="12.14"/>
+    <col customWidth="1" min="23" max="23" width="9.43"/>
+    <col customWidth="1" min="24" max="24" width="18.86"/>
+    <col customWidth="1" min="25" max="26" width="9.43"/>
+    <col customWidth="1" min="27" max="27" width="8.71"/>
+    <col customWidth="1" min="28" max="28" width="13.43"/>
+    <col customWidth="1" min="29" max="29" width="11.29"/>
+    <col customWidth="1" min="30" max="35" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13960,27 +13973,27 @@
       <selection activeCell="B4" sqref="B4" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.88"/>
-    <col customWidth="1" min="2" max="2" width="11.63"/>
-    <col customWidth="1" min="3" max="8" width="11.0"/>
-    <col customWidth="1" min="9" max="9" width="9.5"/>
-    <col customWidth="1" min="10" max="10" width="12.13"/>
-    <col customWidth="1" min="11" max="20" width="11.0"/>
-    <col customWidth="1" min="21" max="21" width="9.13"/>
-    <col customWidth="1" min="22" max="38" width="11.0"/>
-    <col customWidth="1" min="39" max="39" width="12.75"/>
-    <col customWidth="1" min="40" max="40" width="17.88"/>
-    <col customWidth="1" min="41" max="41" width="8.5"/>
-    <col customWidth="1" min="42" max="42" width="8.38"/>
-    <col customWidth="1" min="43" max="45" width="5.5"/>
-    <col customWidth="1" min="46" max="46" width="5.88"/>
-    <col customWidth="1" min="47" max="47" width="9.38"/>
-    <col customWidth="1" min="48" max="48" width="10.25"/>
-    <col customWidth="1" min="49" max="49" width="10.38"/>
-    <col customWidth="1" min="50" max="50" width="10.25"/>
-    <col customWidth="1" min="51" max="62" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="18.14"/>
+    <col customWidth="1" min="2" max="2" width="13.29"/>
+    <col customWidth="1" min="3" max="8" width="12.57"/>
+    <col customWidth="1" min="9" max="9" width="10.86"/>
+    <col customWidth="1" min="10" max="11" width="13.86"/>
+    <col customWidth="1" min="12" max="21" width="12.57"/>
+    <col customWidth="1" min="22" max="22" width="10.43"/>
+    <col customWidth="1" min="23" max="39" width="12.57"/>
+    <col customWidth="1" min="40" max="40" width="14.57"/>
+    <col customWidth="1" min="41" max="41" width="20.43"/>
+    <col customWidth="1" min="42" max="42" width="9.71"/>
+    <col customWidth="1" min="43" max="43" width="9.57"/>
+    <col customWidth="1" min="44" max="46" width="6.29"/>
+    <col customWidth="1" min="47" max="47" width="6.71"/>
+    <col customWidth="1" min="48" max="48" width="10.71"/>
+    <col customWidth="1" min="49" max="49" width="11.71"/>
+    <col customWidth="1" min="50" max="50" width="11.86"/>
+    <col customWidth="1" min="51" max="51" width="11.71"/>
+    <col customWidth="1" min="52" max="63" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14004,9 +14017,9 @@
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
       <c r="L1" s="104"/>
-      <c r="M1" s="8"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="104"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="104"/>
       <c r="Q1" s="104"/>
       <c r="R1" s="104"/>
@@ -14031,17 +14044,18 @@
       <c r="AK1" s="104"/>
       <c r="AL1" s="104"/>
       <c r="AM1" s="104"/>
-      <c r="AN1" s="8"/>
+      <c r="AN1" s="104"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="106"/>
+      <c r="AP1" s="8"/>
       <c r="AQ1" s="106"/>
       <c r="AR1" s="106"/>
       <c r="AS1" s="106"/>
       <c r="AT1" s="106"/>
-      <c r="AU1" s="8"/>
+      <c r="AU1" s="106"/>
       <c r="AV1" s="8"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="106"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="106"/>
     </row>
     <row r="2">
       <c r="A2" s="104" t="s">
@@ -14087,9 +14101,9 @@
       <c r="AK2" s="104"/>
       <c r="AL2" s="104"/>
       <c r="AM2" s="104"/>
-      <c r="AN2" s="8"/>
+      <c r="AN2" s="104"/>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="106"/>
+      <c r="AP2" s="8"/>
       <c r="AQ2" s="106"/>
       <c r="AR2" s="106"/>
       <c r="AS2" s="106"/>
@@ -14098,6 +14112,7 @@
       <c r="AV2" s="106"/>
       <c r="AW2" s="106"/>
       <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
     </row>
     <row r="3" ht="40.5" customHeight="1">
       <c r="A3" s="107" t="s">
@@ -14127,7 +14142,7 @@
       <c r="I3" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="108" t="s">
         <v>162</v>
       </c>
       <c r="K3" s="107" t="s">
@@ -14172,10 +14187,10 @@
       <c r="X3" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" s="109" t="s">
+      <c r="Y3" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" s="107" t="s">
+      <c r="Z3" s="109" t="s">
         <v>178</v>
       </c>
       <c r="AA3" s="107" t="s">
@@ -14211,34 +14226,34 @@
       <c r="AK3" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="AL3" s="110" t="s">
+      <c r="AL3" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="AM3" s="107" t="s">
+      <c r="AM3" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN3" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" s="107" t="s">
+      <c r="AO3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="AP3" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="104" t="s">
+      <c r="AR3" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="104" t="s">
+      <c r="AS3" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="104" t="s">
+      <c r="AT3" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU3" s="111" t="s">
+      <c r="AU3" s="107" t="s">
         <v>193</v>
       </c>
       <c r="AV3" s="111" t="s">
@@ -14250,7 +14265,9 @@
       <c r="AX3" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="AY3" s="42"/>
+      <c r="AY3" s="111" t="s">
+        <v>197</v>
+      </c>
       <c r="AZ3" s="42"/>
       <c r="BA3" s="42"/>
       <c r="BB3" s="42"/>
@@ -14262,6 +14279,7 @@
       <c r="BH3" s="42"/>
       <c r="BI3" s="42"/>
       <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
     </row>
     <row r="4" ht="49.5" customHeight="1">
       <c r="A4" s="112" t="s">
@@ -14276,84 +14294,85 @@
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="112"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="112"/>
       <c r="M4" s="112"/>
       <c r="N4" s="112"/>
       <c r="O4" s="112"/>
       <c r="P4" s="112"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="106"/>
       <c r="S4" s="112"/>
       <c r="T4" s="112"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="114"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="112"/>
       <c r="Y4" s="114"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="120"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="116"/>
       <c r="AV4" s="120"/>
       <c r="AW4" s="120"/>
       <c r="AX4" s="120"/>
+      <c r="AY4" s="120"/>
     </row>
     <row r="5" ht="49.5" customHeight="1">
       <c r="A5" s="121">
         <v>43895.0</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H5" s="122">
         <v>95324.0</v>
       </c>
       <c r="I5" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J5" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="112" t="s">
         <v>203</v>
       </c>
+      <c r="K5" s="113" t="s">
+        <v>203</v>
+      </c>
       <c r="L5" s="112" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M5" s="112" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N5" s="112" t="s">
         <v>205</v>
@@ -14364,100 +14383,103 @@
       <c r="P5" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="112" t="s">
+      <c r="Q5" s="112" t="s">
         <v>208</v>
       </c>
+      <c r="R5" s="106"/>
       <c r="S5" s="112" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="T5" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="114">
+      <c r="U5" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="V5" s="114">
         <v>95324.0</v>
       </c>
-      <c r="V5" s="106" t="s">
+      <c r="W5" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="X5" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y5" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z5" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="W5" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="X5" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y5" s="114" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB5" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC5" s="112" t="s">
+      <c r="AC5" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="AD5" s="114">
+      <c r="AD5" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE5" s="114">
         <v>95324.0</v>
       </c>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="114" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI5" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ5" s="112" t="s">
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ5" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="AK5" s="114">
+      <c r="AK5" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" s="114">
         <v>95324.0</v>
       </c>
-      <c r="AL5" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM5" s="115" t="s">
+      <c r="AM5" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN5" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="AN5" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO5" s="116">
+      <c r="AO5" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP5" s="116">
         <v>1898.0</v>
       </c>
-      <c r="AP5" s="117">
+      <c r="AQ5" s="117">
         <v>56.0</v>
       </c>
-      <c r="AQ5" s="118">
+      <c r="AR5" s="118">
         <v>1.94</v>
       </c>
-      <c r="AR5" s="119">
+      <c r="AS5" s="119">
         <v>0.528</v>
       </c>
-      <c r="AS5" s="118">
+      <c r="AT5" s="118">
         <v>2.18</v>
       </c>
-      <c r="AT5" s="116"/>
-      <c r="AU5" s="120">
-        <f t="shared" ref="AU5:AU6" si="1">(AQ5/100)*2000*(1-(AP5/100))*AO5</f>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="120">
+        <f t="shared" ref="AV5:AV6" si="1">(AR5/100)*2000*(1-(AQ5/100))*AP5</f>
         <v>32402.656</v>
       </c>
-      <c r="AV5" s="120">
-        <f t="shared" ref="AV5:AV6" si="2">(AR5/100)*2000*(1-(AP5/100))*AO5</f>
+      <c r="AW5" s="120">
+        <f t="shared" ref="AW5:AW6" si="2">(AS5/100)*2000*(1-(AQ5/100))*AP5</f>
         <v>8818.8672</v>
       </c>
-      <c r="AW5" s="120">
-        <f t="shared" ref="AW5:AW6" si="3">(AS5/100)*2000*(1-(AP5/100))*AO5</f>
+      <c r="AX5" s="120">
+        <f t="shared" ref="AX5:AX6" si="3">(AT5/100)*2000*(1-(AQ5/100))*AP5</f>
         <v>36411.232</v>
       </c>
-      <c r="AX5" s="120">
-        <f t="shared" ref="AX5:AX6" si="4">(AT5/100)*2000*(1-(AP5/100))*AO5</f>
+      <c r="AY5" s="120">
+        <f t="shared" ref="AY5:AY6" si="4">(AU5/100)*2000*(1-(AQ5/100))*AP5</f>
         <v>0</v>
       </c>
     </row>
@@ -14466,38 +14488,38 @@
         <v>43959.0</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G6" s="113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6" s="122">
         <v>95324.0</v>
       </c>
       <c r="I6" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J6" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="112" t="s">
         <v>203</v>
       </c>
+      <c r="K6" s="113" t="s">
+        <v>203</v>
+      </c>
       <c r="L6" s="112" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M6" s="112" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="N6" s="112" t="s">
         <v>215</v>
@@ -14508,99 +14530,102 @@
       <c r="P6" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="112" t="s">
-        <v>208</v>
-      </c>
+      <c r="Q6" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" s="106"/>
       <c r="S6" s="112" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="T6" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="U6" s="114">
+      <c r="U6" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" s="114">
         <v>95324.0</v>
       </c>
-      <c r="V6" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="W6" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="X6" s="114" t="s">
+      <c r="W6" s="106" t="s">
         <v>219</v>
+      </c>
+      <c r="X6" s="112" t="s">
+        <v>211</v>
       </c>
       <c r="Y6" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB6" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="112" t="s">
+      <c r="Z6" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC6" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="AD6" s="114">
+      <c r="AD6" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE6" s="114">
         <v>95324.0</v>
       </c>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI6" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="112" t="s">
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ6" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="AK6" s="114">
+      <c r="AK6" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL6" s="114">
         <v>95324.0</v>
       </c>
-      <c r="AL6" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM6" s="115" t="s">
+      <c r="AM6" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN6" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="AN6" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO6" s="116">
+      <c r="AO6" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP6" s="116">
         <v>1839.0</v>
       </c>
-      <c r="AP6" s="117">
+      <c r="AQ6" s="117">
         <v>35.6</v>
       </c>
-      <c r="AQ6" s="118">
+      <c r="AR6" s="118">
         <v>2.4</v>
       </c>
-      <c r="AR6" s="118">
+      <c r="AS6" s="118">
         <v>1.0</v>
       </c>
-      <c r="AS6" s="118">
+      <c r="AT6" s="118">
         <v>4.8</v>
       </c>
-      <c r="AT6" s="116"/>
-      <c r="AU6" s="120">
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="120">
         <f t="shared" si="1"/>
         <v>56847.168</v>
       </c>
-      <c r="AV6" s="120">
+      <c r="AW6" s="120">
         <f t="shared" si="2"/>
         <v>23686.32</v>
       </c>
-      <c r="AW6" s="120">
+      <c r="AX6" s="120">
         <f t="shared" si="3"/>
         <v>113694.336</v>
       </c>
-      <c r="AX6" s="120">
+      <c r="AY6" s="120">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14611,16 +14636,16 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="AN4:AN6">
+    <dataValidation type="list" allowBlank="1" sqref="AO4:AO6">
       <formula1>"Dry manure: Separator solids,Dry manure: Corral solids,Dry manure: Scraped material,Dry manure: Bedding,Dry manure: Compost,Process wastewater,Process wastewater: Process wastewater sludge"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AM4:AM6">
+    <dataValidation type="list" allowBlank="1" sqref="AN4:AN6">
       <formula1>"dry-weight,as-is"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:J6">
+    <dataValidation type="list" allowBlank="1" sqref="I5:K6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="W4:W6">
+    <dataValidation type="list" allowBlank="1" sqref="X4:X6">
       <formula1>"Broker,Compost Facility,Farmer,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14648,51 +14673,51 @@
       <selection activeCell="B4" sqref="B4" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.88"/>
-    <col customWidth="1" min="2" max="2" width="12.5"/>
-    <col customWidth="1" min="3" max="3" width="11.5"/>
-    <col customWidth="1" min="4" max="11" width="11.38"/>
-    <col customWidth="1" min="12" max="12" width="14.5"/>
-    <col customWidth="1" min="13" max="13" width="12.63"/>
-    <col customWidth="1" min="14" max="14" width="14.0"/>
-    <col customWidth="1" min="15" max="15" width="10.63"/>
-    <col customWidth="1" min="16" max="16" width="9.5"/>
-    <col customWidth="1" min="17" max="17" width="11.75"/>
-    <col customWidth="1" min="18" max="18" width="13.5"/>
-    <col customWidth="1" min="19" max="19" width="10.75"/>
-    <col customWidth="1" min="20" max="20" width="7.75"/>
-    <col customWidth="1" min="21" max="21" width="9.13"/>
-    <col customWidth="1" min="22" max="22" width="14.63"/>
-    <col customWidth="1" min="23" max="23" width="15.13"/>
-    <col customWidth="1" min="24" max="24" width="14.0"/>
-    <col customWidth="1" min="25" max="25" width="13.13"/>
-    <col customWidth="1" min="26" max="26" width="10.13"/>
-    <col customWidth="1" min="27" max="27" width="12.5"/>
-    <col customWidth="1" min="28" max="28" width="13.13"/>
-    <col customWidth="1" min="29" max="29" width="8.25"/>
-    <col customWidth="1" min="30" max="30" width="11.63"/>
-    <col customWidth="1" min="31" max="32" width="14.63"/>
-    <col customWidth="1" min="33" max="33" width="11.63"/>
-    <col customWidth="1" min="34" max="34" width="11.38"/>
-    <col customWidth="1" min="35" max="35" width="13.38"/>
-    <col customWidth="1" min="36" max="36" width="11.75"/>
-    <col customWidth="1" min="37" max="37" width="11.25"/>
-    <col customWidth="1" min="38" max="38" width="17.25"/>
-    <col customWidth="1" min="39" max="39" width="21.25"/>
-    <col customWidth="1" min="40" max="40" width="9.25"/>
-    <col customWidth="1" min="41" max="41" width="7.63"/>
-    <col customWidth="1" min="42" max="42" width="16.0"/>
-    <col customWidth="1" min="43" max="43" width="19.0"/>
-    <col customWidth="1" min="44" max="44" width="7.0"/>
-    <col customWidth="1" min="45" max="45" width="7.13"/>
-    <col customWidth="1" min="46" max="46" width="6.88"/>
-    <col customWidth="1" min="47" max="47" width="9.0"/>
-    <col customWidth="1" min="48" max="48" width="8.25"/>
-    <col customWidth="1" min="49" max="50" width="9.63"/>
-    <col customWidth="1" min="51" max="51" width="9.5"/>
-    <col customWidth="1" min="52" max="62" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="11.29"/>
+    <col customWidth="1" min="2" max="2" width="14.29"/>
+    <col customWidth="1" min="3" max="3" width="13.14"/>
+    <col customWidth="1" min="4" max="12" width="13.0"/>
+    <col customWidth="1" min="13" max="13" width="16.57"/>
+    <col customWidth="1" min="14" max="14" width="14.43"/>
+    <col customWidth="1" min="15" max="15" width="16.0"/>
+    <col customWidth="1" min="16" max="16" width="12.14"/>
+    <col customWidth="1" min="17" max="17" width="10.86"/>
+    <col customWidth="1" min="18" max="18" width="13.43"/>
+    <col customWidth="1" min="19" max="19" width="15.43"/>
+    <col customWidth="1" min="20" max="20" width="12.29"/>
+    <col customWidth="1" min="21" max="21" width="8.86"/>
+    <col customWidth="1" min="22" max="22" width="10.43"/>
+    <col customWidth="1" min="23" max="23" width="16.71"/>
+    <col customWidth="1" min="24" max="24" width="17.29"/>
+    <col customWidth="1" min="25" max="25" width="16.0"/>
+    <col customWidth="1" min="26" max="26" width="15.0"/>
+    <col customWidth="1" min="27" max="27" width="11.57"/>
+    <col customWidth="1" min="28" max="28" width="14.29"/>
+    <col customWidth="1" min="29" max="29" width="15.0"/>
+    <col customWidth="1" min="30" max="30" width="9.43"/>
+    <col customWidth="1" min="31" max="31" width="13.29"/>
+    <col customWidth="1" min="32" max="33" width="16.71"/>
+    <col customWidth="1" min="34" max="34" width="13.29"/>
+    <col customWidth="1" min="35" max="35" width="13.0"/>
+    <col customWidth="1" min="36" max="36" width="15.29"/>
+    <col customWidth="1" min="37" max="37" width="13.43"/>
+    <col customWidth="1" min="38" max="38" width="12.86"/>
+    <col customWidth="1" min="39" max="39" width="19.71"/>
+    <col customWidth="1" min="40" max="40" width="24.29"/>
+    <col customWidth="1" min="41" max="41" width="10.57"/>
+    <col customWidth="1" min="42" max="42" width="8.71"/>
+    <col customWidth="1" min="43" max="43" width="18.29"/>
+    <col customWidth="1" min="44" max="44" width="21.71"/>
+    <col customWidth="1" min="45" max="45" width="8.0"/>
+    <col customWidth="1" min="46" max="46" width="8.14"/>
+    <col customWidth="1" min="47" max="47" width="7.86"/>
+    <col customWidth="1" min="48" max="48" width="10.29"/>
+    <col customWidth="1" min="49" max="49" width="9.43"/>
+    <col customWidth="1" min="50" max="51" width="11.0"/>
+    <col customWidth="1" min="52" max="52" width="10.86"/>
+    <col customWidth="1" min="53" max="63" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -14716,9 +14741,9 @@
       <c r="J1" s="123"/>
       <c r="K1" s="123"/>
       <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
+      <c r="M1" s="123"/>
       <c r="N1" s="124"/>
-      <c r="O1" s="123"/>
+      <c r="O1" s="124"/>
       <c r="P1" s="123"/>
       <c r="Q1" s="123"/>
       <c r="R1" s="123"/>
@@ -14742,23 +14767,24 @@
       <c r="AJ1" s="123"/>
       <c r="AK1" s="123"/>
       <c r="AL1" s="123"/>
-      <c r="AM1" s="8"/>
+      <c r="AM1" s="123"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
       <c r="AQ1" s="8"/>
-      <c r="AR1" s="125" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS1" s="126"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="125" t="s">
+        <v>223</v>
+      </c>
       <c r="AT1" s="126"/>
       <c r="AU1" s="126"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="8"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="127"/>
       <c r="AX1" s="8"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="128"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="123"/>
       <c r="BA1" s="128"/>
+      <c r="BB1" s="128"/>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="104" t="s">
@@ -14777,11 +14803,11 @@
       <c r="J2" s="123"/>
       <c r="K2" s="123"/>
       <c r="L2" s="123"/>
-      <c r="M2" s="124"/>
+      <c r="M2" s="123"/>
       <c r="N2" s="124"/>
       <c r="O2" s="124"/>
       <c r="P2" s="124"/>
-      <c r="Q2" s="123"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="123"/>
       <c r="S2" s="123"/>
       <c r="T2" s="123"/>
@@ -14803,21 +14829,22 @@
       <c r="AJ2" s="123"/>
       <c r="AK2" s="123"/>
       <c r="AL2" s="123"/>
-      <c r="AM2" s="8"/>
+      <c r="AM2" s="123"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="130"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="129"/>
       <c r="AT2" s="130"/>
       <c r="AU2" s="130"/>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="8"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="131"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="128"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="124"/>
       <c r="BA2" s="128"/>
+      <c r="BB2" s="128"/>
     </row>
     <row r="3" ht="44.25" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -14892,10 +14919,10 @@
       <c r="X3" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" s="132" t="s">
+      <c r="Y3" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" s="108" t="s">
+      <c r="Z3" s="132" t="s">
         <v>178</v>
       </c>
       <c r="AA3" s="108" t="s">
@@ -14931,41 +14958,41 @@
       <c r="AK3" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="AL3" s="133" t="s">
+      <c r="AL3" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="AM3" s="108" t="s">
+      <c r="AM3" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN3" s="108" t="s">
         <v>22</v>
-      </c>
-      <c r="AN3" s="123" t="s">
-        <v>223</v>
       </c>
       <c r="AO3" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="AP3" s="108" t="s">
+      <c r="AP3" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="134" t="s">
+      <c r="AQ3" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR3" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="AR3" s="134" t="s">
+      <c r="AS3" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="134" t="s">
+      <c r="AT3" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="134" t="s">
+      <c r="AU3" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="AU3" s="134" t="s">
+      <c r="AV3" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="AV3" s="134" t="s">
+      <c r="AW3" s="134" t="s">
         <v>105</v>
-      </c>
-      <c r="AW3" s="134" t="s">
-        <v>193</v>
       </c>
       <c r="AX3" s="134" t="s">
         <v>194</v>
@@ -14973,9 +15000,11 @@
       <c r="AY3" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="AZ3" s="135"/>
+      <c r="AZ3" s="134" t="s">
+        <v>196</v>
+      </c>
       <c r="BA3" s="135"/>
-      <c r="BB3" s="42"/>
+      <c r="BB3" s="135"/>
       <c r="BC3" s="42"/>
       <c r="BD3" s="42"/>
       <c r="BE3" s="42"/>
@@ -14984,6 +15013,7 @@
       <c r="BH3" s="42"/>
       <c r="BI3" s="42"/>
       <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="136" t="s">
@@ -14998,397 +15028,404 @@
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="113"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="113"/>
       <c r="M4" s="113"/>
       <c r="N4" s="113"/>
-      <c r="O4" s="137"/>
+      <c r="O4" s="113"/>
       <c r="P4" s="137"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
       <c r="S4" s="136"/>
       <c r="T4" s="136"/>
-      <c r="U4" s="139"/>
+      <c r="U4" s="136"/>
       <c r="V4" s="139"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="136"/>
       <c r="Y4" s="139"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="136"/>
       <c r="AE4" s="139"/>
       <c r="AF4" s="139"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="138"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="138"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="139"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="136"/>
       <c r="AO4" s="138"/>
-      <c r="AP4" s="140"/>
-      <c r="AQ4" s="138"/>
-      <c r="AR4" s="141"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="141"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="140"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="142"/>
       <c r="AU4" s="141"/>
       <c r="AV4" s="141"/>
-      <c r="AW4" s="143"/>
+      <c r="AW4" s="141"/>
       <c r="AX4" s="143"/>
       <c r="AY4" s="143"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="141"/>
-      <c r="BB4" s="144"/>
-      <c r="BC4" s="145"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="141"/>
+      <c r="BC4" s="144"/>
       <c r="BD4" s="145"/>
       <c r="BE4" s="145"/>
-      <c r="BF4" s="146"/>
+      <c r="BF4" s="145"/>
       <c r="BG4" s="146"/>
       <c r="BH4" s="146"/>
       <c r="BI4" s="146"/>
       <c r="BJ4" s="146"/>
+      <c r="BK4" s="146"/>
     </row>
     <row r="5" ht="61.5" customHeight="1">
       <c r="A5" s="147">
         <v>43855.0</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H5" s="122">
         <v>95324.0</v>
       </c>
       <c r="I5" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J5" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K5" s="113" t="s">
         <v>203</v>
       </c>
       <c r="L5" s="113" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M5" s="113" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="N5" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="O5" s="137" t="s">
         <v>227</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>204</v>
       </c>
       <c r="P5" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="136" t="s">
-        <v>208</v>
-      </c>
+      <c r="Q5" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="138"/>
       <c r="S5" s="136" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="T5" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="139">
+      <c r="U5" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="V5" s="139">
         <v>95324.0</v>
       </c>
-      <c r="V5" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="W5" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="X5" s="139" t="s">
+      <c r="W5" s="139" t="s">
         <v>230</v>
+      </c>
+      <c r="X5" s="136" t="s">
+        <v>211</v>
       </c>
       <c r="Y5" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB5" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC5" s="136" t="s">
+      <c r="Z5" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC5" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="AD5" s="139">
+      <c r="AD5" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE5" s="139">
         <v>95324.0</v>
       </c>
-      <c r="AE5" s="139" t="s">
+      <c r="AF5" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG5" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="AF5" s="139" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG5" s="138"/>
-      <c r="AH5" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI5" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ5" s="136" t="s">
+      <c r="AH5" s="138"/>
+      <c r="AI5" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ5" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="AK5" s="139">
+      <c r="AK5" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" s="139">
         <v>95324.0</v>
       </c>
-      <c r="AL5" s="122" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM5" s="136" t="s">
+      <c r="AM5" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN5" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="138">
+      <c r="AO5" s="138">
         <v>7.0</v>
       </c>
-      <c r="AO5" s="138">
+      <c r="AP5" s="138">
         <v>1000.0</v>
       </c>
-      <c r="AP5" s="140">
-        <f t="shared" ref="AP5:AP6" si="1">(AN5*AO5)*60</f>
+      <c r="AQ5" s="140">
+        <f t="shared" ref="AQ5:AQ6" si="1">(AO5*AP5)*60</f>
         <v>420000</v>
       </c>
-      <c r="AQ5" s="138" t="s">
+      <c r="AR5" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="AR5" s="141">
+      <c r="AS5" s="141">
         <v>484.0</v>
       </c>
-      <c r="AS5" s="142">
+      <c r="AT5" s="142">
         <v>71.9</v>
       </c>
-      <c r="AT5" s="141">
+      <c r="AU5" s="141">
         <v>997.0</v>
       </c>
-      <c r="AU5" s="141">
+      <c r="AV5" s="141">
         <v>8000.0</v>
       </c>
-      <c r="AV5" s="141">
+      <c r="AW5" s="141">
         <v>8800.0</v>
       </c>
-      <c r="AW5" s="143">
-        <f t="shared" ref="AW5:AW6" si="2">(AR5*0.008345)*(AP5/1000)</f>
+      <c r="AX5" s="143">
+        <f t="shared" ref="AX5:AX6" si="2">(AS5*0.008345)*(AQ5/1000)</f>
         <v>1696.3716</v>
       </c>
-      <c r="AX5" s="143">
-        <f t="shared" ref="AX5:AX6" si="3">(AS5*0.008345)*(AP5/1000)</f>
+      <c r="AY5" s="143">
+        <f t="shared" ref="AY5:AY6" si="3">(AT5*0.008345)*(AQ5/1000)</f>
         <v>252.00231</v>
       </c>
-      <c r="AY5" s="143">
-        <f t="shared" ref="AY5:AY6" si="4">(AT5*0.008345)*(AP5/1000)</f>
+      <c r="AZ5" s="143">
+        <f t="shared" ref="AZ5:AZ6" si="4">(AU5*0.008345)*(AQ5/1000)</f>
         <v>3494.3853</v>
       </c>
-      <c r="AZ5" s="121"/>
-      <c r="BA5" s="141"/>
-      <c r="BB5" s="144"/>
-      <c r="BC5" s="145"/>
+      <c r="BA5" s="121"/>
+      <c r="BB5" s="141"/>
+      <c r="BC5" s="144"/>
       <c r="BD5" s="145"/>
       <c r="BE5" s="145"/>
-      <c r="BF5" s="146"/>
+      <c r="BF5" s="145"/>
       <c r="BG5" s="146"/>
       <c r="BH5" s="146"/>
       <c r="BI5" s="146"/>
       <c r="BJ5" s="146"/>
+      <c r="BK5" s="146"/>
     </row>
     <row r="6" ht="61.5" customHeight="1">
       <c r="A6" s="148">
         <v>43873.0</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G6" s="113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6" s="122">
         <v>95324.0</v>
       </c>
       <c r="I6" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J6" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K6" s="113" t="s">
         <v>203</v>
       </c>
       <c r="L6" s="113" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M6" s="113" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="N6" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="O6" s="137" t="s">
         <v>227</v>
+      </c>
+      <c r="O6" s="113" t="s">
+        <v>204</v>
       </c>
       <c r="P6" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="136" t="s">
-        <v>208</v>
-      </c>
+      <c r="Q6" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="138"/>
       <c r="S6" s="136" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="T6" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="U6" s="139">
+      <c r="U6" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" s="139">
         <v>95324.0</v>
       </c>
-      <c r="V6" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="W6" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="X6" s="139" t="s">
+      <c r="W6" s="124" t="s">
         <v>235</v>
+      </c>
+      <c r="X6" s="136" t="s">
+        <v>211</v>
       </c>
       <c r="Y6" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB6" s="149" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="136" t="s">
+      <c r="Z6" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC6" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="AD6" s="139">
+      <c r="AD6" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE6" s="139">
         <v>95324.0</v>
       </c>
-      <c r="AE6" s="149" t="s">
+      <c r="AF6" s="149" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG6" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="AF6" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI6" s="149" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="136" t="s">
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ6" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="AK6" s="139">
+      <c r="AK6" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL6" s="139">
         <v>95324.0</v>
       </c>
-      <c r="AL6" s="122" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM6" s="136" t="s">
+      <c r="AM6" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="AN6" s="138">
+      <c r="AO6" s="138">
         <v>7.0</v>
       </c>
-      <c r="AO6" s="138">
+      <c r="AP6" s="138">
         <v>1000.0</v>
       </c>
-      <c r="AP6" s="150">
+      <c r="AQ6" s="150">
         <f t="shared" si="1"/>
         <v>420000</v>
       </c>
-      <c r="AQ6" s="124" t="s">
+      <c r="AR6" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="AR6" s="151">
+      <c r="AS6" s="151">
         <v>484.0</v>
       </c>
-      <c r="AS6" s="152">
+      <c r="AT6" s="152">
         <v>71.9</v>
       </c>
-      <c r="AT6" s="151">
+      <c r="AU6" s="151">
         <v>997.0</v>
       </c>
-      <c r="AU6" s="151">
+      <c r="AV6" s="151">
         <v>8000.0</v>
       </c>
-      <c r="AV6" s="151">
+      <c r="AW6" s="151">
         <v>8800.0</v>
       </c>
-      <c r="AW6" s="153">
+      <c r="AX6" s="153">
         <f t="shared" si="2"/>
         <v>1696.3716</v>
       </c>
-      <c r="AX6" s="153">
+      <c r="AY6" s="153">
         <f t="shared" si="3"/>
         <v>252.00231</v>
       </c>
-      <c r="AY6" s="153">
+      <c r="AZ6" s="153">
         <f t="shared" si="4"/>
         <v>3494.3853</v>
       </c>
-      <c r="AZ6" s="154"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="155"/>
-      <c r="BC6" s="156"/>
+      <c r="BA6" s="154"/>
+      <c r="BB6" s="151"/>
+      <c r="BC6" s="155"/>
       <c r="BD6" s="156"/>
       <c r="BE6" s="156"/>
-      <c r="BF6" s="42"/>
+      <c r="BF6" s="156"/>
       <c r="BG6" s="42"/>
       <c r="BH6" s="42"/>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AR1:AV2"/>
+    <mergeCell ref="AS1:AW2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="AM4:AM6">
+    <dataValidation type="list" allowBlank="1" sqref="AN4:AN6">
       <formula1>"Dry manure: Separator solids,Dry manure: Corral solids,Dry manure: Scraped material,Dry manure: Bedding,Dry manure: Compost,Process wastewater,Process wastewater: Process wastewater sludge"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:J6">
+    <dataValidation type="list" allowBlank="1" sqref="I5:K6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="W4:W6">
+    <dataValidation type="list" allowBlank="1" sqref="X4:X6">
       <formula1>"Broker,Compost Facility,Farmer,Other"</formula1>
     </dataValidation>
   </dataValidations>
